--- a/国赛训练/2019培训1/pr1_data.xlsx
+++ b/国赛训练/2019培训1/pr1_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\MCM-2019-College\国赛训练\2019培训1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89159CC4-693E-4D1C-A1B6-6FC1513A4B5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F83D32-C605-4056-96A6-350E809A239B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9192" yWindow="3408" windowWidth="16200" windowHeight="10500" xr2:uid="{6DBFF23E-EE80-4E13-A1D2-1652AED829E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016" xr2:uid="{6DBFF23E-EE80-4E13-A1D2-1652AED829E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C38"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -692,9 +692,7 @@
       <c r="B34" s="1">
         <v>36.450000000000003</v>
       </c>
-      <c r="C34" s="1">
-        <v>30.14</v>
-      </c>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -703,9 +701,7 @@
       <c r="B35" s="1">
         <v>36.450000000000003</v>
       </c>
-      <c r="C35" s="1">
-        <v>30.14</v>
-      </c>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -714,9 +710,7 @@
       <c r="B36" s="1">
         <v>36.450000000000003</v>
       </c>
-      <c r="C36" s="1">
-        <v>30.14</v>
-      </c>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -725,9 +719,7 @@
       <c r="B37" s="1">
         <v>36.450000000000003</v>
       </c>
-      <c r="C37" s="1">
-        <v>30.14</v>
-      </c>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -736,9 +728,7 @@
       <c r="B38" s="1">
         <v>36.450000000000003</v>
       </c>
-      <c r="C38" s="1">
-        <v>30.14</v>
-      </c>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
